--- a/classfiers/bottleneck/welm/bloated_welm_rbf_results.xlsx
+++ b/classfiers/bottleneck/welm/bloated_welm_rbf_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9570815450643777</v>
+        <v>0.9436619718309859</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9570815450643777</v>
+        <v>0.9530516431924883</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9313304721030042</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9267241379310345</v>
+        <v>0.9339622641509434</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9525862068965517</v>
+        <v>0.9481132075471698</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9449607814118691</v>
+        <v>0.9444370626273363</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
